--- a/excel/第十章第5题.xlsx
+++ b/excel/第十章第5题.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjjscgq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\bjjscgq.github.io\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFAC886-B3DB-4454-A4DF-D2BEC85F5EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42023EBC-FCED-4A7D-A166-C56A301A0BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2533,14 +2533,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2567,16 +2567,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2870,7 +2870,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
